--- a/phan_cong_cong_viec/Phân công capstone.xlsx
+++ b/phan_cong_cong_viec/Phân công capstone.xlsx
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -220,6 +220,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -659,7 +662,16 @@
         <v>26</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="F15" s="15" t="s">
+      <c r="C15" s="15">
+        <v>45208.0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>45212.0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>19</v>
       </c>
     </row>
